--- a/ThesisReport/Results/PreyPredator/PreyPredatorResults.xlsx
+++ b/ThesisReport/Results/PreyPredator/PreyPredatorResults.xlsx
@@ -12,6 +12,7 @@
     <sheet name="2M" sheetId="3" r:id="rId3"/>
     <sheet name="MB-Pref" sheetId="4" r:id="rId4"/>
     <sheet name="MiO-HyperNEAT" sheetId="5" r:id="rId5"/>
+    <sheet name="MiO-HyperNEATDistance" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -2882,8 +2883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6527,9 +6528,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
